--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H2">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I2">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J2">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N2">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O2">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P2">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q2">
-        <v>0.918995443615</v>
+        <v>0.2476199871481111</v>
       </c>
       <c r="R2">
-        <v>8.270958992535</v>
+        <v>2.228579884333</v>
       </c>
       <c r="S2">
-        <v>0.0002490001385682216</v>
+        <v>7.616008262206199E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002849911851329892</v>
+        <v>8.362972542238229E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H3">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I3">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J3">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>97.972082</v>
       </c>
       <c r="O3">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P3">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q3">
-        <v>7.49143525013</v>
+        <v>4.031888633693556</v>
       </c>
       <c r="R3">
-        <v>67.42291725116999</v>
+        <v>36.286997703242</v>
       </c>
       <c r="S3">
-        <v>0.002029790711496388</v>
+        <v>0.00124008152573477</v>
       </c>
       <c r="T3">
-        <v>0.002323181279205585</v>
+        <v>0.001361706473103612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H4">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I4">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J4">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N4">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O4">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P4">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q4">
-        <v>2.022101249675</v>
+        <v>1.295798546375667</v>
       </c>
       <c r="R4">
-        <v>18.198911247075</v>
+        <v>11.662186917381</v>
       </c>
       <c r="S4">
-        <v>0.0005478846438970863</v>
+        <v>0.000398546682318053</v>
       </c>
       <c r="T4">
-        <v>0.0006270771368973201</v>
+        <v>0.0004376354182237335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H5">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I5">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J5">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N5">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O5">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P5">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q5">
-        <v>4.3615629500475</v>
+        <v>1.5377424652755</v>
       </c>
       <c r="R5">
-        <v>26.169377700285</v>
+        <v>9.226454791653001</v>
       </c>
       <c r="S5">
-        <v>0.001181757522827094</v>
+        <v>0.0004729609857252137</v>
       </c>
       <c r="T5">
-        <v>0.0009017142959756347</v>
+        <v>0.0003462320943809921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H6">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I6">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J6">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N6">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O6">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P6">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q6">
-        <v>1.92687594425</v>
+        <v>1.205328912934667</v>
       </c>
       <c r="R6">
-        <v>17.34188349825</v>
+        <v>10.847960216412</v>
       </c>
       <c r="S6">
-        <v>0.0005220835211485825</v>
+        <v>0.0003707210821433266</v>
       </c>
       <c r="T6">
-        <v>0.0005975466611628932</v>
+        <v>0.0004070807336408249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>131.577157</v>
       </c>
       <c r="I7">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J7">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N7">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O7">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P7">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q7">
-        <v>175.7068343059141</v>
+        <v>87.96653695876677</v>
       </c>
       <c r="R7">
-        <v>1581.361508753227</v>
+        <v>791.698832628901</v>
       </c>
       <c r="S7">
-        <v>0.04760744614516831</v>
+        <v>0.02705572680104007</v>
       </c>
       <c r="T7">
-        <v>0.05448873472955585</v>
+        <v>0.02970930342476446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>131.577157</v>
       </c>
       <c r="I8">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J8">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>97.972082</v>
       </c>
       <c r="O8">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P8">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q8">
         <v>1432.320890547875</v>
@@ -948,10 +948,10 @@
         <v>12890.88801493087</v>
       </c>
       <c r="S8">
-        <v>0.3880847317562894</v>
+        <v>0.4405366409302946</v>
       </c>
       <c r="T8">
-        <v>0.4441793818718719</v>
+        <v>0.4837436758350732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>131.577157</v>
       </c>
       <c r="I9">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J9">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N9">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O9">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P9">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q9">
-        <v>386.6145492830905</v>
+        <v>460.3300082262397</v>
       </c>
       <c r="R9">
-        <v>3479.530943547815</v>
+        <v>4142.970074036158</v>
       </c>
       <c r="S9">
-        <v>0.1047525066776172</v>
+        <v>0.1415829629251813</v>
       </c>
       <c r="T9">
-        <v>0.1198936723303315</v>
+        <v>0.1554691631924554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>131.577157</v>
       </c>
       <c r="I10">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J10">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N10">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O10">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P10">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q10">
-        <v>833.9066574304629</v>
+        <v>546.2801325638235</v>
       </c>
       <c r="R10">
-        <v>5003.439944582778</v>
+        <v>3277.680795382941</v>
       </c>
       <c r="S10">
-        <v>0.225945487211944</v>
+        <v>0.1680185049277398</v>
       </c>
       <c r="T10">
-        <v>0.1724027746764759</v>
+        <v>0.122998303478868</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>131.577157</v>
       </c>
       <c r="I11">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J11">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N11">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O11">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P11">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q11">
-        <v>368.4079987737389</v>
+        <v>428.1908402802626</v>
       </c>
       <c r="R11">
-        <v>3315.67198896365</v>
+        <v>3853.717562522364</v>
       </c>
       <c r="S11">
-        <v>0.09981947503836885</v>
+        <v>0.1316979705448778</v>
       </c>
       <c r="T11">
-        <v>0.1142476090740946</v>
+        <v>0.1446146686842305</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H12">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I12">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J12">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.006170333333333</v>
+        <v>2.005664333333333</v>
       </c>
       <c r="N12">
-        <v>12.018511</v>
+        <v>6.016992999999999</v>
       </c>
       <c r="O12">
-        <v>0.0549606510611227</v>
+        <v>0.02976781902817159</v>
       </c>
       <c r="P12">
-        <v>0.06019443438116229</v>
+        <v>0.03172257287647481</v>
       </c>
       <c r="Q12">
-        <v>26.21979191845734</v>
+        <v>8.570230772801834</v>
       </c>
       <c r="R12">
-        <v>157.318751510744</v>
+        <v>51.421384636811</v>
       </c>
       <c r="S12">
-        <v>0.007104204777386179</v>
+        <v>0.002635932144509461</v>
       </c>
       <c r="T12">
-        <v>0.005420708466473449</v>
+        <v>0.001929639726287972</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H13">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I13">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J13">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>97.972082</v>
       </c>
       <c r="O13">
-        <v>0.4480263330901557</v>
+        <v>0.4846964599741412</v>
       </c>
       <c r="P13">
-        <v>0.490690906813236</v>
+        <v>0.5165248673390457</v>
       </c>
       <c r="Q13">
-        <v>213.7375922739547</v>
+        <v>139.5453430030357</v>
       </c>
       <c r="R13">
-        <v>1282.425553643728</v>
+        <v>837.272058018214</v>
       </c>
       <c r="S13">
-        <v>0.05791181062236999</v>
+        <v>0.04291973751811193</v>
       </c>
       <c r="T13">
-        <v>0.0441883436621584</v>
+        <v>0.03141948503086887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H14">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I14">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J14">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.814931666666666</v>
+        <v>10.495667</v>
       </c>
       <c r="N14">
-        <v>26.444795</v>
+        <v>31.487001</v>
       </c>
       <c r="O14">
-        <v>0.1209320481029574</v>
+        <v>0.1557753760903259</v>
       </c>
       <c r="P14">
-        <v>0.1324481441462082</v>
+        <v>0.1660046278737794</v>
       </c>
       <c r="Q14">
-        <v>57.69242314844667</v>
+        <v>44.84812678250451</v>
       </c>
       <c r="R14">
-        <v>346.15453889068</v>
+        <v>269.088760695027</v>
       </c>
       <c r="S14">
-        <v>0.01563165678144307</v>
+        <v>0.01379386648282648</v>
       </c>
       <c r="T14">
-        <v>0.01192739467897934</v>
+        <v>0.01009782926310021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H15">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I15">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J15">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.0133305</v>
+        <v>12.4553565</v>
       </c>
       <c r="N15">
-        <v>38.026661</v>
+        <v>24.910713</v>
       </c>
       <c r="O15">
-        <v>0.2608438823545533</v>
+        <v>0.1848608423958749</v>
       </c>
       <c r="P15">
-        <v>0.1904556521435312</v>
+        <v>0.1313333601264699</v>
       </c>
       <c r="Q15">
-        <v>124.439434149586</v>
+        <v>53.22190647181276</v>
       </c>
       <c r="R15">
-        <v>497.7577365983441</v>
+        <v>212.887625887251</v>
       </c>
       <c r="S15">
-        <v>0.03371663761978227</v>
+        <v>0.01636937648240983</v>
       </c>
       <c r="T15">
-        <v>0.01715116317107965</v>
+        <v>0.00798882455322089</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H16">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I16">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J16">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.399816666666668</v>
+        <v>9.762884</v>
       </c>
       <c r="N16">
-        <v>25.19945</v>
+        <v>29.288652</v>
       </c>
       <c r="O16">
-        <v>0.115237085391211</v>
+        <v>0.1448995025114864</v>
       </c>
       <c r="P16">
-        <v>0.1262108625158624</v>
+        <v>0.1544145717842301</v>
       </c>
       <c r="Q16">
-        <v>54.97555691046668</v>
+        <v>41.716935130934</v>
       </c>
       <c r="R16">
-        <v>329.8533414628001</v>
+        <v>250.301610785604</v>
       </c>
       <c r="S16">
-        <v>0.01489552683169356</v>
+        <v>0.01283081088446527</v>
       </c>
       <c r="T16">
-        <v>0.01136570678060488</v>
+        <v>0.009392822366358689</v>
       </c>
     </row>
   </sheetData>
